--- a/data/Summary_report.xlsx
+++ b/data/Summary_report.xlsx
@@ -8,18 +8,19 @@
   <sheets>
     <sheet name="Summary" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Summary'!$A$1:$S$6</definedName>
+  </definedNames>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -35,16 +36,8 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <family val="2"/>
-      <color rgb="FF9C5700"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -54,17 +47,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.5999633777886288"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -77,23 +59,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
-    <cellStyle name="Нейтральный" xfId="2" builtinId="28"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -431,21 +409,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor theme="3" tint="0.3999755851924192"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="18.7109375" customWidth="1" min="1" max="1"/>
     <col width="24.5703125" customWidth="1" min="2" max="2"/>
-    <col width="11.28515625" customWidth="1" min="3" max="3"/>
+    <col width="24.140625" customWidth="1" min="3" max="3"/>
     <col width="27.5703125" customWidth="1" min="4" max="4"/>
+    <col width="19" customWidth="1" min="7" max="7"/>
+    <col width="23.140625" customWidth="1" min="8" max="8"/>
+    <col width="26.5703125" customWidth="1" min="10" max="10"/>
+    <col width="22" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -454,88 +437,79 @@
           <t>Date</t>
         </is>
       </c>
-      <c r="B1" s="2" t="n">
-        <v>44918.63130710796</v>
-      </c>
-      <c r="C1" s="5" t="n">
-        <v>44918.61474601852</v>
-      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
       <c r="D1" s="2" t="n">
-        <v>44918.60810569445</v>
-      </c>
-      <c r="G1" s="5" t="n">
-        <v>44918.59367806713</v>
-      </c>
-      <c r="H1" s="5" t="n">
-        <v>44918.62759623842</v>
-      </c>
-      <c r="J1" s="5" t="n">
-        <v>44918.59812008102</v>
-      </c>
+        <v>44923.62453398903</v>
+      </c>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
     </row>
-    <row r="2" customFormat="1" s="1">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2" customFormat="1" s="3">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Tank Name</t>
         </is>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="I2" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="J2" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="K2" s="1" t="n">
+      <c r="K2" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="L2" s="1" t="n">
+      <c r="L2" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="M2" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="N2" s="1" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Overflow</t>
         </is>
       </c>
-      <c r="O2" s="1" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Sludge</t>
         </is>
       </c>
-      <c r="P2" s="1" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>Bilge</t>
         </is>
       </c>
-      <c r="Q2" s="1" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>Waste</t>
         </is>
       </c>
-      <c r="R2" s="1" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>MEoil</t>
         </is>
@@ -547,23 +521,8 @@
           <t>Tank Capacity</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>29</v>
-      </c>
-      <c r="C3" t="n">
-        <v>21.41</v>
-      </c>
       <c r="D3" t="n">
         <v>18.04</v>
-      </c>
-      <c r="G3" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="H3" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="J3" t="n">
-        <v>27.35</v>
       </c>
     </row>
     <row r="4">
@@ -572,23 +531,8 @@
           <t>Current Capacity</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.35</v>
-      </c>
       <c r="D4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.71</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="5">
@@ -597,48 +541,18 @@
           <t>Remaining Capacity</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>21.29</v>
-      </c>
-      <c r="C5" t="n">
-        <v>20.06</v>
-      </c>
       <c r="D5" t="n">
-        <v>17.65</v>
-      </c>
-      <c r="G5" t="n">
-        <v>9.329999999999998</v>
-      </c>
-      <c r="H5" t="n">
-        <v>9.329999999999998</v>
-      </c>
-      <c r="J5" t="n">
-        <v>25.64</v>
+        <v>17.22</v>
       </c>
     </row>
-    <row r="6" customFormat="1" s="4">
-      <c r="A6" s="3" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Percentage</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
-        <v>73.41</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>93.69</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>97.84</v>
-      </c>
-      <c r="G6" t="n">
-        <v>80.29000000000001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>80.29000000000001</v>
-      </c>
-      <c r="J6" t="n">
-        <v>93.75</v>
+      <c r="D6" t="n">
+        <v>95.45</v>
       </c>
     </row>
   </sheetData>

--- a/data/Summary_report.xlsx
+++ b/data/Summary_report.xlsx
@@ -1,45 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Git\FUEL\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAE39BD-7834-4F3F-9428-A5DBA49D232B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Summary" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Summary'!$A$1:$S$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$A$1:$S$6</definedName>
   </definedNames>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Tank Name</t>
+  </si>
+  <si>
+    <t>Overflow</t>
+  </si>
+  <si>
+    <t>Sludge</t>
+  </si>
+  <si>
+    <t>Bilge</t>
+  </si>
+  <si>
+    <t>Waste</t>
+  </si>
+  <si>
+    <t>MEoil</t>
+  </si>
+  <si>
+    <t>Tank Capacity</t>
+  </si>
+  <si>
+    <t>Current Capacity</t>
+  </si>
+  <si>
+    <t>Remaining Capacity</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -64,84 +109,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -407,156 +393,227 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <tabColor theme="3" tint="0.3999755851924192"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="18.7109375" customWidth="1" min="1" max="1"/>
-    <col width="24.5703125" customWidth="1" min="2" max="2"/>
-    <col width="24.140625" customWidth="1" min="3" max="3"/>
-    <col width="27.5703125" customWidth="1" min="4" max="4"/>
-    <col width="19" customWidth="1" min="7" max="7"/>
-    <col width="23.140625" customWidth="1" min="8" max="8"/>
-    <col width="26.5703125" customWidth="1" min="10" max="10"/>
-    <col width="22" customWidth="1" min="15" max="15"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" customWidth="1"/>
+    <col min="10" max="10" width="26.5703125" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" customWidth="1"/>
+    <col min="12" max="12" width="23.140625" customWidth="1"/>
+    <col min="14" max="14" width="29.42578125" customWidth="1"/>
+    <col min="15" max="15" width="22" customWidth="1"/>
+    <col min="16" max="16" width="19.5703125" customWidth="1"/>
+    <col min="17" max="17" width="21.140625" customWidth="1"/>
+    <col min="18" max="18" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="n">
-        <v>44923.62453398903</v>
-      </c>
-      <c r="G1" s="2" t="n"/>
-      <c r="H1" s="2" t="n"/>
-      <c r="J1" s="2" t="n"/>
-      <c r="O1" s="2" t="n"/>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>44922.668090277781</v>
+      </c>
+      <c r="C1" s="1">
+        <v>44923.668035046299</v>
+      </c>
+      <c r="D1" s="1">
+        <v>44923.668175439823</v>
+      </c>
+      <c r="E1" s="3">
+        <v>44923.668208587973</v>
+      </c>
+      <c r="F1" s="3">
+        <v>44923.668133842591</v>
+      </c>
+      <c r="G1" s="1">
+        <v>44923.668247581023</v>
+      </c>
+      <c r="H1" s="1">
+        <v>44923.668292819442</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="O1" s="1"/>
     </row>
-    <row r="2" customFormat="1" s="3">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>Tank Name</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="n">
+    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="2">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="2">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="2">
         <v>13</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="2">
         <v>14</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="2">
         <v>21</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="2">
         <v>22</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="2">
         <v>23</v>
       </c>
-      <c r="J2" s="3" t="n">
+      <c r="J2" s="2">
         <v>7</v>
       </c>
-      <c r="K2" s="3" t="n">
+      <c r="K2" s="2">
         <v>6</v>
       </c>
-      <c r="L2" s="3" t="n">
+      <c r="L2" s="2">
         <v>5</v>
       </c>
-      <c r="M2" s="3" t="n">
+      <c r="M2" s="2">
         <v>17</v>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Overflow</t>
-        </is>
-      </c>
-      <c r="O2" s="3" t="inlineStr">
-        <is>
-          <t>Sludge</t>
-        </is>
-      </c>
-      <c r="P2" s="3" t="inlineStr">
-        <is>
-          <t>Bilge</t>
-        </is>
-      </c>
-      <c r="Q2" s="3" t="inlineStr">
-        <is>
-          <t>Waste</t>
-        </is>
-      </c>
-      <c r="R2" s="3" t="inlineStr">
-        <is>
-          <t>MEoil</t>
-        </is>
+      <c r="N2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Tank Capacity</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>29</v>
+      </c>
+      <c r="C3">
+        <v>21.41</v>
+      </c>
+      <c r="D3">
         <v>18.04</v>
       </c>
+      <c r="E3">
+        <v>2.52</v>
+      </c>
+      <c r="F3">
+        <v>2.52</v>
+      </c>
+      <c r="G3">
+        <v>11.62</v>
+      </c>
+      <c r="H3">
+        <v>11.62</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Current Capacity</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.82</v>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>14.22</v>
+      </c>
+      <c r="C4">
+        <v>3.29</v>
+      </c>
+      <c r="D4">
+        <v>1.47</v>
+      </c>
+      <c r="E4">
+        <v>1.04</v>
+      </c>
+      <c r="F4">
+        <v>1.04</v>
+      </c>
+      <c r="G4">
+        <v>3.62</v>
+      </c>
+      <c r="H4">
+        <v>3.62</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Remaining Capacity</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>17.22</v>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>14.78</v>
+      </c>
+      <c r="C5">
+        <v>18.12</v>
+      </c>
+      <c r="D5">
+        <v>16.57</v>
+      </c>
+      <c r="E5">
+        <v>1.48</v>
+      </c>
+      <c r="F5">
+        <v>1.48</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Percentage</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>95.45</v>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>50.97</v>
+      </c>
+      <c r="C6">
+        <v>84.63</v>
+      </c>
+      <c r="D6">
+        <v>91.85</v>
+      </c>
+      <c r="E6">
+        <v>58.73</v>
+      </c>
+      <c r="F6">
+        <v>58.73</v>
+      </c>
+      <c r="G6">
+        <v>68.849999999999994</v>
+      </c>
+      <c r="H6">
+        <v>68.849999999999994</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/data/Summary_report.xlsx
+++ b/data/Summary_report.xlsx
@@ -1,90 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Git\FUEL\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAE39BD-7834-4F3F-9428-A5DBA49D232B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$A$1:$S$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Summary'!$A$1:$S$6</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Tank Name</t>
-  </si>
-  <si>
-    <t>Overflow</t>
-  </si>
-  <si>
-    <t>Sludge</t>
-  </si>
-  <si>
-    <t>Bilge</t>
-  </si>
-  <si>
-    <t>Waste</t>
-  </si>
-  <si>
-    <t>MEoil</t>
-  </si>
-  <si>
-    <t>Tank Capacity</t>
-  </si>
-  <si>
-    <t>Current Capacity</t>
-  </si>
-  <si>
-    <t>Remaining Capacity</t>
-  </si>
-  <si>
-    <t>Percentage</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -109,25 +64,84 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -393,9 +407,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor theme="3" tint="0.39997558519241921"/>
+    <tabColor theme="3" tint="0.3999755851924192"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:R6"/>
   <sheetViews>
@@ -403,217 +419,239 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" customWidth="1"/>
-    <col min="10" max="10" width="26.5703125" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" customWidth="1"/>
-    <col min="12" max="12" width="23.140625" customWidth="1"/>
-    <col min="14" max="14" width="29.42578125" customWidth="1"/>
-    <col min="15" max="15" width="22" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" customWidth="1"/>
-    <col min="17" max="17" width="21.140625" customWidth="1"/>
-    <col min="18" max="18" width="29.28515625" customWidth="1"/>
+    <col width="18.7109375" customWidth="1" min="1" max="1"/>
+    <col width="24.5703125" customWidth="1" min="2" max="2"/>
+    <col width="24.140625" customWidth="1" min="3" max="3"/>
+    <col width="27.5703125" customWidth="1" min="4" max="4"/>
+    <col width="30.5703125" customWidth="1" min="5" max="5"/>
+    <col width="24.7109375" customWidth="1" min="6" max="6"/>
+    <col width="19" customWidth="1" min="7" max="7"/>
+    <col width="23.140625" customWidth="1" min="8" max="8"/>
+    <col width="22.42578125" customWidth="1" min="9" max="9"/>
+    <col width="26.5703125" customWidth="1" min="10" max="10"/>
+    <col width="22.5703125" customWidth="1" min="11" max="11"/>
+    <col width="23.140625" customWidth="1" min="12" max="12"/>
+    <col width="29.42578125" customWidth="1" min="14" max="14"/>
+    <col width="22" customWidth="1" min="15" max="15"/>
+    <col width="19.5703125" customWidth="1" min="16" max="16"/>
+    <col width="21.140625" customWidth="1" min="17" max="17"/>
+    <col width="29.28515625" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>44922.668090277781</v>
-      </c>
-      <c r="C1" s="1">
-        <v>44923.668035046299</v>
-      </c>
-      <c r="D1" s="1">
-        <v>44923.668175439823</v>
-      </c>
-      <c r="E1" s="3">
-        <v>44923.668208587973</v>
-      </c>
-      <c r="F1" s="3">
-        <v>44923.668133842591</v>
-      </c>
-      <c r="G1" s="1">
-        <v>44923.668247581023</v>
-      </c>
-      <c r="H1" s="1">
-        <v>44923.668292819442</v>
-      </c>
-      <c r="J1" s="1"/>
-      <c r="O1" s="1"/>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="n">
+        <v>44924.56546911641</v>
+      </c>
+      <c r="C1" s="3" t="n">
+        <v>44923.6680350463</v>
+      </c>
+      <c r="D1" s="3" t="n">
+        <v>44923.66817543982</v>
+      </c>
+      <c r="E1" s="3" t="n">
+        <v>44923.66820858797</v>
+      </c>
+      <c r="F1" s="3" t="n">
+        <v>44923.66813384259</v>
+      </c>
+      <c r="G1" s="3" t="n">
+        <v>44923.66824758102</v>
+      </c>
+      <c r="H1" s="3" t="n">
+        <v>44923.66829282408</v>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
+    <row r="2" customFormat="1" s="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Tank Name</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>6</v>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>Overflow</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="inlineStr">
+        <is>
+          <t>Sludge</t>
+        </is>
+      </c>
+      <c r="P2" s="2" t="inlineStr">
+        <is>
+          <t>Bilge</t>
+        </is>
+      </c>
+      <c r="Q2" s="2" t="inlineStr">
+        <is>
+          <t>Waste</t>
+        </is>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>MEoil</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tank Capacity</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>29</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>21.41</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>18.04</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>2.52</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>2.52</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>11.62</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>11.62</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Current Capacity</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>16.035</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Remaining Capacity</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>12.965</v>
+      </c>
+      <c r="C5" t="n">
+        <v>18.12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.57</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G5" t="n">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>14.22</v>
-      </c>
-      <c r="C4">
-        <v>3.29</v>
-      </c>
-      <c r="D4">
-        <v>1.47</v>
-      </c>
-      <c r="E4">
-        <v>1.04</v>
-      </c>
-      <c r="F4">
-        <v>1.04</v>
-      </c>
-      <c r="G4">
-        <v>3.62</v>
-      </c>
-      <c r="H4">
-        <v>3.62</v>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>14.78</v>
-      </c>
-      <c r="C5">
-        <v>18.12</v>
-      </c>
-      <c r="D5">
-        <v>16.57</v>
-      </c>
-      <c r="E5">
-        <v>1.48</v>
-      </c>
-      <c r="F5">
-        <v>1.48</v>
-      </c>
-      <c r="G5">
-        <v>8</v>
-      </c>
-      <c r="H5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>50.97</v>
-      </c>
-      <c r="C6">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="C6" t="n">
         <v>84.63</v>
       </c>
-      <c r="D6">
-        <v>91.85</v>
-      </c>
-      <c r="E6">
+      <c r="D6" t="n">
+        <v>91.84999999999999</v>
+      </c>
+      <c r="E6" t="n">
         <v>58.73</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>58.73</v>
       </c>
-      <c r="G6">
-        <v>68.849999999999994</v>
-      </c>
-      <c r="H6">
-        <v>68.849999999999994</v>
+      <c r="G6" t="n">
+        <v>68.84999999999999</v>
+      </c>
+      <c r="H6" t="n">
+        <v>68.84999999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>